--- a/mathsindsa.xlsx
+++ b/mathsindsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\Desktop\LEETCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700C8C66-2BA3-4C8D-92B6-62AF377C158D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28077D41-DA91-4F34-9D28-635952165993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>## Easy</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>recursion divide and conquer</t>
+  </si>
+  <si>
+    <t>dynamic programming</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -565,101 +568,112 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B14" s="3"/>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
